--- a/config_ios/fishbowl_config.xlsx
+++ b/config_ios/fishbowl_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_ios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="653" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="653"/>
   </bookViews>
   <sheets>
     <sheet name="fish|鱼配置" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="471">
   <si>
     <t>id|鱼的ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -236,14 +236,6 @@
     <t>河豚</t>
   </si>
   <si>
-    <t>小水母</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小章鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>小海龟</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -253,9 +245,6 @@
   </si>
   <si>
     <t>魔鬼鱼</t>
-  </si>
-  <si>
-    <t>虎鲸</t>
   </si>
   <si>
     <t>3dby_icon_yu22</t>
@@ -1442,9 +1431,6 @@
     <t>身型小巧，自认为很可爱。</t>
   </si>
   <si>
-    <t>天生长者一对大眼睛，一脸无辜的样子让人不忍心捕捉。</t>
-  </si>
-  <si>
     <t>机智聪明，调皮好动，加上可爱的外表，一直深受大家喜爱。</t>
   </si>
   <si>
@@ -1712,10 +1698,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>rotation|旋转角度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1734,6 +1716,22 @@
   <si>
     <t>饲料*200，普通精灵硬币*5</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生长着一对大眼睛，一脸无辜的样子让人不忍心捕捉。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤头鲨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎鲨</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2283,9 +2281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Q33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2328,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -2340,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
@@ -2361,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>5</v>
@@ -2376,19 +2374,19 @@
         <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="S1" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T1" s="25" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="U1" s="25" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="V1" s="32" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="W1" s="4"/>
     </row>
@@ -2419,37 +2417,37 @@
         <v>10</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="U2">
         <v>2</v>
@@ -2485,37 +2483,37 @@
         <v>10</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="S3" t="s">
-        <v>408</v>
+        <v>386</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>467</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U3">
         <v>2</v>
@@ -2551,37 +2549,37 @@
         <v>10</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U4">
         <v>2</v>
@@ -2617,37 +2615,37 @@
         <v>10</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U5">
         <v>1</v>
@@ -2683,37 +2681,37 @@
         <v>10</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -2749,37 +2747,37 @@
         <v>10</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -2815,37 +2813,37 @@
         <v>10</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="S8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -2881,37 +2879,37 @@
         <v>30</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="N9" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R9" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="U9" s="26"/>
       <c r="V9">
@@ -2932,11 +2930,9 @@
         <v>42</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>466</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="3">
         <v>2</v>
       </c>
@@ -2947,37 +2943,37 @@
         <v>30</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="N10" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="S10" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U10">
         <v>2</v>
@@ -3000,7 +2996,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>469</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="3">
@@ -3013,37 +3009,37 @@
         <v>30</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="N11" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R11" s="15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="S11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -3066,7 +3062,7 @@
         <v>44</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="3">
@@ -3079,37 +3075,37 @@
         <v>30</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R12" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -3132,7 +3128,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="3">
@@ -3145,37 +3141,37 @@
         <v>30</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="R13" s="15" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="S13" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -3195,7 +3191,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="3">
@@ -3208,37 +3204,37 @@
         <v>30</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="S14" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -3258,7 +3254,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>54</v>
+        <v>470</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="3">
@@ -3271,37 +3267,37 @@
         <v>30</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="R15" s="15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="S15" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -3318,10 +3314,10 @@
         <v>0.6</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="3">
@@ -3334,37 +3330,37 @@
         <v>50</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="R16" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V16">
         <v>1</v>
@@ -3381,10 +3377,10 @@
         <v>0.6</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="3">
@@ -3397,37 +3393,37 @@
         <v>50</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="R17" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S17" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -3444,10 +3440,10 @@
         <v>0.6</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="3">
@@ -3460,37 +3456,37 @@
         <v>50</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="R18" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V18">
         <v>1</v>
@@ -3507,10 +3503,10 @@
         <v>0.6</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="3">
@@ -3523,37 +3519,37 @@
         <v>50</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="R19" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="S19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -3570,10 +3566,10 @@
         <v>0.6</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="3">
@@ -3586,37 +3582,37 @@
         <v>50</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -3633,10 +3629,10 @@
         <v>0.6</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="3">
@@ -3649,37 +3645,37 @@
         <v>50</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="R21" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V21">
         <v>1</v>
@@ -3696,10 +3692,10 @@
         <v>0.6</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="3">
@@ -3712,37 +3708,37 @@
         <v>50</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="R22" s="16" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="S22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -3759,10 +3755,10 @@
         <v>0.6</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="3">
@@ -3775,37 +3771,37 @@
         <v>50</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="R23" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="S23" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V23">
         <v>1</v>
@@ -3822,10 +3818,10 @@
         <v>0.6</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="3">
@@ -3838,37 +3834,37 @@
         <v>80</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="S24" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V24">
         <v>1</v>
@@ -3885,10 +3881,10 @@
         <v>0.6</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="3">
@@ -3901,37 +3897,37 @@
         <v>80</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="R25" s="17" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="S25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3948,10 +3944,10 @@
         <v>0.6</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="3">
@@ -3964,37 +3960,37 @@
         <v>80</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="R26" s="17" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V26">
         <v>1</v>
@@ -4011,10 +4007,10 @@
         <v>0.4</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="3">
@@ -4027,37 +4023,37 @@
         <v>100</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S27" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="V27">
         <v>1</v>
@@ -4074,10 +4070,10 @@
         <v>0.4</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="3">
@@ -4090,37 +4086,37 @@
         <v>100</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S28" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -4137,10 +4133,10 @@
         <v>0.4</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="3">
@@ -4153,37 +4149,37 @@
         <v>100</v>
       </c>
       <c r="J29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S29" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V29">
         <v>1</v>
@@ -4200,10 +4196,10 @@
         <v>0.4</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="3">
@@ -4216,37 +4212,37 @@
         <v>100</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V30">
         <v>1</v>
@@ -4263,10 +4259,10 @@
         <v>0.4</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="3">
@@ -4279,37 +4275,37 @@
         <v>100</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="R31" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S31" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -4326,10 +4322,10 @@
         <v>0.4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
@@ -4341,37 +4337,37 @@
         <v>100</v>
       </c>
       <c r="J32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="O32" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="O32" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="P32" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -4388,10 +4384,10 @@
         <v>0.2</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="3">
@@ -4404,37 +4400,37 @@
         <v>100</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -4462,13 +4458,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4476,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -4487,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4538,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4552,7 +4548,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,10 +4559,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4581,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4596,7 +4592,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4608,10 +4604,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4626,7 +4622,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,7 +4637,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4653,10 +4649,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4671,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4686,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4716,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4743,10 +4739,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -4761,7 +4757,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -4776,7 +4772,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4788,10 +4784,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4806,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4821,7 +4817,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4833,10 +4829,10 @@
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4851,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4866,7 +4862,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K24" s="4"/>
     </row>
@@ -4879,10 +4875,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K25" s="4"/>
     </row>
@@ -4898,7 +4894,7 @@
         <v>12</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4913,7 +4909,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4925,10 +4921,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -4943,7 +4939,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -4958,7 +4954,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -4970,10 +4966,10 @@
         <v>10</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -4988,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5003,7 +4999,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5015,10 +5011,10 @@
         <v>11</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,7 +5029,7 @@
         <v>12</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -5048,7 +5044,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5060,10 +5056,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -5093,7 +5089,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -5105,10 +5101,10 @@
         <v>13</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5123,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -5138,7 +5134,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5150,10 +5146,10 @@
         <v>14</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5168,7 +5164,7 @@
         <v>12</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5183,7 +5179,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5195,10 +5191,10 @@
         <v>15</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5213,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5228,7 +5224,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -5240,10 +5236,10 @@
         <v>16</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,7 +5254,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -5273,7 +5269,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,10 +5281,10 @@
         <v>17</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -5303,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -5318,7 +5314,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,10 +5326,10 @@
         <v>18</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -5348,7 +5344,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,7 +5359,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -5375,10 +5371,10 @@
         <v>19</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -5393,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -5408,7 +5404,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -5420,10 +5416,10 @@
         <v>20</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,7 +5434,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -5465,10 +5461,10 @@
         <v>21</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -5483,7 +5479,7 @@
         <v>12</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,7 +5494,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -5510,10 +5506,10 @@
         <v>22</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -5528,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -5543,7 +5539,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,10 +5551,10 @@
         <v>23</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -5573,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -5588,7 +5584,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -5600,10 +5596,10 @@
         <v>24</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -5618,7 +5614,7 @@
         <v>12</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -5633,7 +5629,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -5645,10 +5641,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -5663,7 +5659,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -5678,7 +5674,7 @@
         <v>13</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -5690,10 +5686,10 @@
         <v>26</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -5708,7 +5704,7 @@
         <v>12</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -5723,7 +5719,7 @@
         <v>13</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -5735,10 +5731,10 @@
         <v>27</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -5753,7 +5749,7 @@
         <v>12</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -5768,7 +5764,7 @@
         <v>13</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -5780,10 +5776,10 @@
         <v>28</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -5798,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -5813,7 +5809,7 @@
         <v>13</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -5825,10 +5821,10 @@
         <v>29</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -5843,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -5858,7 +5854,7 @@
         <v>13</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,10 +5866,10 @@
         <v>30</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -5888,7 +5884,7 @@
         <v>12</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -5903,7 +5899,7 @@
         <v>13</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -5915,10 +5911,10 @@
         <v>31</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -5933,7 +5929,7 @@
         <v>12</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -5948,7 +5944,7 @@
         <v>13</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -5960,10 +5956,10 @@
         <v>32</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6002,7 +5998,7 @@
         <v>22</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -6019,7 +6015,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7613,7 +7609,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7624,7 +7620,7 @@
         <v>50000</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -7641,7 +7637,7 @@
         <v>300000</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -7658,7 +7654,7 @@
         <v>800000</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -7675,7 +7671,7 @@
         <v>2500000</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D5">
         <v>15</v>
@@ -7692,7 +7688,7 @@
         <v>8250000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D6">
         <v>20</v>
@@ -7709,7 +7705,7 @@
         <v>30000000</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -7726,7 +7722,7 @@
         <v>80010000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D8">
         <v>30</v>
@@ -7743,7 +7739,7 @@
         <v>150000000</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D9">
         <v>35</v>
@@ -7760,7 +7756,7 @@
         <v>500000000</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D10">
         <v>40</v>
@@ -7774,7 +7770,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11">
         <v>50</v>
@@ -7820,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -7831,7 +7827,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -7842,7 +7838,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -7853,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -7864,7 +7860,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -7875,7 +7871,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -7886,7 +7882,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -7897,7 +7893,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -7908,7 +7904,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -7919,7 +7915,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -7930,7 +7926,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -7941,7 +7937,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -7952,7 +7948,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -7963,7 +7959,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -7974,7 +7970,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -7985,7 +7981,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -7996,7 +7992,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -8007,7 +8003,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -8018,7 +8014,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -8029,7 +8025,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -8040,7 +8036,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -8051,7 +8047,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -8062,7 +8058,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -8073,7 +8069,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -8084,7 +8080,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -8095,7 +8091,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -8106,7 +8102,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -8117,7 +8113,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -8128,7 +8124,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -8139,7 +8135,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -8150,7 +8146,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -8161,7 +8157,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C33">
         <f>C2+64</f>
@@ -8173,7 +8169,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C34">
         <f t="shared" ref="C34:C63" si="0">C3+64</f>
@@ -8185,7 +8181,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -8197,7 +8193,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -8209,7 +8205,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -8221,7 +8217,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -8233,7 +8229,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -8245,7 +8241,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -8257,7 +8253,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -8269,7 +8265,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -8281,7 +8277,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -8293,7 +8289,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -8305,7 +8301,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -8317,7 +8313,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -8329,7 +8325,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -8341,7 +8337,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -8353,7 +8349,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -8365,7 +8361,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -8377,7 +8373,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -8389,7 +8385,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -8401,7 +8397,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -8413,7 +8409,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -8425,7 +8421,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -8437,7 +8433,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -8449,7 +8445,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
@@ -8461,7 +8457,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
@@ -8473,7 +8469,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
@@ -8485,7 +8481,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
@@ -8497,7 +8493,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
@@ -8509,7 +8505,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
@@ -8521,7 +8517,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
@@ -8533,7 +8529,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C64">
         <f>C2+32</f>
@@ -8545,7 +8541,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:C94" si="1">C3+32</f>
@@ -8557,7 +8553,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="23" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
@@ -8569,7 +8565,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
@@ -8581,7 +8577,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -8593,7 +8589,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
@@ -8605,7 +8601,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
@@ -8617,7 +8613,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
@@ -8629,7 +8625,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
@@ -8641,7 +8637,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
@@ -8653,7 +8649,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
@@ -8665,7 +8661,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
@@ -8677,7 +8673,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
@@ -8689,7 +8685,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
@@ -8701,7 +8697,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
@@ -8713,7 +8709,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
@@ -8725,7 +8721,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="23" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
@@ -8737,7 +8733,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
@@ -8749,7 +8745,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
@@ -8761,7 +8757,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="23" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
@@ -8773,7 +8769,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
@@ -8785,7 +8781,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
@@ -8797,7 +8793,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
@@ -8809,7 +8805,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
@@ -8821,7 +8817,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="23" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
@@ -8833,7 +8829,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
@@ -8845,7 +8841,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
@@ -8857,7 +8853,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
@@ -8869,7 +8865,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
@@ -8881,7 +8877,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
@@ -8893,7 +8889,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
@@ -8910,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8922,13 +8918,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -8939,7 +8935,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -8950,7 +8946,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -8961,7 +8957,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -8972,7 +8968,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -9000,13 +8996,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9072,13 +9068,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>22</v>
@@ -9092,7 +9088,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D2" s="30">
         <v>100000</v>
@@ -9106,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D3" s="30">
         <v>180000</v>
@@ -9120,7 +9116,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D4" s="1">
         <v>300000</v>
@@ -9148,25 +9144,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9181,13 +9177,13 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
